--- a/TYSelenium/Frame/Read.xlsx
+++ b/TYSelenium/Frame/Read.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16890" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -24,15 +25,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Tousif</t>
-  </si>
-  <si>
-    <t>Pavan</t>
-  </si>
-  <si>
     <t>Suraj</t>
   </si>
   <si>
@@ -48,12 +40,6 @@
     <t>Prasanna</t>
   </si>
   <si>
-    <t>Guru123</t>
-  </si>
-  <si>
-    <t>Dekhsha123</t>
-  </si>
-  <si>
     <t>Shruthi1332</t>
   </si>
   <si>
@@ -78,7 +64,22 @@
     <t>MH</t>
   </si>
   <si>
-    <t>Alia123</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>acti-Time - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>Dikhsha123</t>
   </si>
 </sst>
 </file>
@@ -420,13 +421,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,84 +439,84 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
